--- a/HealthAndPharma.xlsx
+++ b/HealthAndPharma.xlsx
@@ -354,7 +354,10 @@
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2.0" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection activeCell="D2" sqref="D2" pane="topRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
@@ -15625,9 +15628,7 @@
       <c r="I487" s="4">
         <v>513.4</v>
       </c>
-      <c r="J487" s="6">
-        <v>43213.39027777778</v>
-      </c>
+      <c r="J487" s="6"/>
     </row>
     <row r="488" ht="14.25" customHeight="1">
       <c r="A488" s="4" t="s">
@@ -16393,9 +16394,6 @@
       <c r="I511" s="4">
         <v>2560.4</v>
       </c>
-      <c r="J511" s="6">
-        <v>40207.75208333333</v>
-      </c>
     </row>
     <row r="512" ht="14.25" customHeight="1">
       <c r="A512" s="4" t="s">
@@ -16426,7 +16424,7 @@
         <v>3180.4</v>
       </c>
       <c r="J512" s="6">
-        <v>40114.59444444445</v>
+        <v>40207.75208333333</v>
       </c>
     </row>
     <row r="513" ht="14.25" customHeight="1">
@@ -16458,7 +16456,7 @@
         <v>2030.6</v>
       </c>
       <c r="J513" s="6">
-        <v>39746.64791666667</v>
+        <v>40114.59444444445</v>
       </c>
     </row>
     <row r="514" ht="14.25" customHeight="1">
@@ -16489,9 +16487,6 @@
       <c r="I514" s="4">
         <v>1215.1</v>
       </c>
-      <c r="J514" s="6">
-        <v>39657.78125</v>
-      </c>
     </row>
     <row r="515" ht="14.25" customHeight="1">
       <c r="A515" s="4" t="s">
@@ -16521,9 +16516,6 @@
       <c r="I515" s="4">
         <v>4246.9</v>
       </c>
-      <c r="J515" s="6">
-        <v>39598.720138888886</v>
-      </c>
     </row>
     <row r="516" ht="14.25" customHeight="1">
       <c r="A516" s="4" t="s">
@@ -16553,9 +16545,6 @@
       <c r="I516" s="4">
         <v>2566.8</v>
       </c>
-      <c r="J516" s="6">
-        <v>39477.52777777778</v>
-      </c>
     </row>
     <row r="517" ht="14.25" customHeight="1">
       <c r="A517" s="4" t="s">
@@ -16586,7 +16575,7 @@
         <v>3031.4</v>
       </c>
       <c r="J517" s="6">
-        <v>39380.8</v>
+        <v>39746.64791666667</v>
       </c>
     </row>
     <row r="518" ht="14.25" customHeight="1">
@@ -16618,7 +16607,7 @@
         <v>2807.8</v>
       </c>
       <c r="J518" s="6">
-        <v>39286.552777777775</v>
+        <v>39657.78125</v>
       </c>
     </row>
     <row r="519" ht="14.25" customHeight="1">
@@ -16649,6 +16638,9 @@
       <c r="I519" s="4">
         <v>2478.9</v>
       </c>
+      <c r="J519" s="6">
+        <v>39598.720138888886</v>
+      </c>
     </row>
     <row r="520" ht="14.25" customHeight="1">
       <c r="A520" s="4" t="s">
@@ -16678,6 +16670,9 @@
       <c r="I520" s="4">
         <v>3459.3</v>
       </c>
+      <c r="J520" s="6">
+        <v>39477.52777777778</v>
+      </c>
     </row>
     <row r="521" ht="14.25" customHeight="1">
       <c r="A521" s="4" t="s">
@@ -16707,6 +16702,9 @@
       <c r="I521" s="4">
         <v>1948.3</v>
       </c>
+      <c r="J521" s="6">
+        <v>39380.8</v>
+      </c>
     </row>
     <row r="522" ht="14.25" customHeight="1">
       <c r="A522" s="4" t="s">
@@ -16735,6 +16733,9 @@
       </c>
       <c r="I522" s="4">
         <v>2253.9</v>
+      </c>
+      <c r="J522" s="6">
+        <v>39286.552777777775</v>
       </c>
     </row>
     <row r="523" ht="14.25" customHeight="1">
